--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP language\React\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF3DF3B-3DD0-484E-8581-A95E2288E1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="236">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -142,9 +141,6 @@
     <t>Biến được khai báo bằng const cũng có phạm vi block scope.</t>
   </si>
   <si>
-    <t>Biến được khai báo bằng const không thể được gán lại giá trị sau khi đã được khai báo (immutable).</t>
-  </si>
-  <si>
     <t>array method</t>
   </si>
   <si>
@@ -220,9 +216,6 @@
     <t>props</t>
   </si>
   <si>
-    <t>là các đối số được truyền vào component</t>
-  </si>
-  <si>
     <t>là viết tắt của property</t>
   </si>
   <si>
@@ -641,13 +634,137 @@
   </si>
   <si>
     <t>bug</t>
+  </si>
+  <si>
+    <t>sau khi xong nên dọn dẹp để khỏi rò rỉ bộ nhớ</t>
+  </si>
+  <si>
+    <t>Timeouts, subscriptions, event listeners</t>
+  </si>
+  <si>
+    <t>một số cái như</t>
+  </si>
+  <si>
+    <t>hủy bỏ nó như</t>
+  </si>
+  <si>
+    <t>clearTimeout, unsubscriptions, removeaddventlistener</t>
+  </si>
+  <si>
+    <t>Nó có thể được sử dụng cùng với useState Hook để chia sẻ trạng thái giữa các thành phần được lồng sâu dễ dàng hơn so với chỉ sử dụng UseState</t>
+  </si>
+  <si>
+    <t>truyền dữ liệu từ component1 xuống thẳng component3, mà ko cần qua component trung gian là component2</t>
+  </si>
+  <si>
+    <t>index.js là file cấp cao nhất</t>
+  </si>
+  <si>
+    <t>import createContext ở file con</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sử dụng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (đặt ở component cha) để cung cấp dữ liệu cho các component con</t>
+    </r>
+  </si>
+  <si>
+    <t>Consumer, là nhận dữ liệu từ component cha</t>
+  </si>
+  <si>
+    <t>sử dụng useContext ở component con, để đẩy thẳng dữ liệu yêu cầu lên component cha</t>
+  </si>
+  <si>
+    <t>Ref stand for reference/tham chiếu</t>
+  </si>
+  <si>
+    <t>lưu các giá trị qua 1 tham chiếu bên ngoài function component</t>
+  </si>
+  <si>
+    <t>luôn trả về là 1object</t>
+  </si>
+  <si>
+    <t>side effects là ngôn ngữ chung trong lĩnh vực lập trình, là đang nói tới 1 phần mềm, khi có tác động thì nó dẫn tới dữ liệu của chương trình bị thay đổi</t>
+  </si>
+  <si>
+    <t>để quản lý vòng đời của của một component</t>
+  </si>
+  <si>
+    <t>var là 1 function scope, không phải là block scope</t>
+  </si>
+  <si>
+    <t>let là phiên bản block scope của var và được giới hạn ở block, nơi nó được xác định</t>
+  </si>
+  <si>
+    <t>nếu biến được khai báo ở trong  vòng lặp, thì chỉ được sử dụng ở trong đó</t>
+  </si>
+  <si>
+    <t>let là 1 block scope</t>
+  </si>
+  <si>
+    <t>là 1 block scope</t>
+  </si>
+  <si>
+    <t>cách lựa chọn khai báo biến nào phụ thuộc vào nhu cầu sử dụng, phạm vi, việc biến có thể thay đổi giá trị hay không trong quá trình sử dụng</t>
+  </si>
+  <si>
+    <t>dù khai báo ở đâu thì biến đều sẽ được đem lên đầu scope trước khi code được thực hiện.</t>
+  </si>
+  <si>
+    <t>đối với các block khác nhau thì việc tái khai báo biến sẽ không sinh ra lỗi vì đối với từng scope, mỗi biến sẽ được xem xét là 1 biến riêng khác biệt</t>
+  </si>
+  <si>
+    <t>Biến được khai báo bằng const không thể được tái khai báo và k thể tái gán lại giá trị sau khi đã được khai báo (immutable).</t>
+  </si>
+  <si>
+    <t>nếu kiểu biến là reference (bao gồm object, array, function) thì có thể cập nhật thuộc tính (property) của biến đó</t>
+  </si>
+  <si>
+    <t>là các đối số được truyền vào react component</t>
+  </si>
+  <si>
+    <t>có thể sử dụng để truyền dữ liệu</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>React Lists</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>được xử lí bằng component, html thuần thì sử dụng bằng DOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +838,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -743,7 +867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -763,6 +887,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -836,13 +964,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1312,143 +1440,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:N50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N6" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N7" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
+      <c r="K13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D14" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>26</v>
       </c>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1456,35 +1594,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032B22D2-4A86-4C29-9EDE-872373627175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:S182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S218"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R7"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S100" sqref="S100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +1646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1540,17 +1678,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I12" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1558,15 +1696,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1574,7 +1712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1582,12 +1720,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1606,7 +1744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1614,10 +1752,10 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1628,897 +1766,1230 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="E26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
+      <c r="E29" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
+      <c r="E30" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
+      <c r="E31" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="E33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
-      <c r="F33" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="E35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+      <c r="E36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
-      <c r="F34" t="s">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="E37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="2"/>
-      <c r="E35" s="1" t="s">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="E38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="E39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="E40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+      <c r="E41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="2"/>
-      <c r="F36" t="s">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+      <c r="E42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="2"/>
-      <c r="F37" t="s">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+      <c r="E43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="2"/>
+      <c r="E44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+      <c r="E45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
-      <c r="E39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-      <c r="E40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
-      <c r="E41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="2"/>
-      <c r="E42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="2"/>
-      <c r="E43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="2"/>
-      <c r="E44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="2"/>
-      <c r="E46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="E47" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="2"/>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="E49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="E50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="2"/>
+      <c r="E55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="2"/>
+      <c r="E57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="2"/>
+      <c r="E58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="2"/>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="2"/>
+      <c r="E62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" t="s">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="2"/>
+      <c r="E63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C53" s="2"/>
-      <c r="E53" t="s">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="2"/>
+      <c r="E64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="2"/>
-      <c r="E54" s="4" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C55" s="2"/>
-      <c r="E55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" t="s">
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C56" s="2"/>
-      <c r="E56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="2"/>
-      <c r="E57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R84" t="s">
+        <v>194</v>
+      </c>
+      <c r="S84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>62</v>
+      </c>
+      <c r="R86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>230</v>
+      </c>
+      <c r="R87" t="s">
+        <v>197</v>
+      </c>
+      <c r="S87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="2"/>
+      <c r="D101" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="D72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B74" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R76" t="s">
-        <v>196</v>
-      </c>
-      <c r="S76" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" t="s">
-        <v>64</v>
-      </c>
-      <c r="R78" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="R79" t="s">
-        <v>199</v>
-      </c>
-      <c r="S79" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D82" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C85" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C86" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="1" t="s">
+      <c r="E101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="2"/>
+      <c r="D102" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="D120" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="1" t="s">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C92" s="2"/>
-      <c r="D92" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C93" s="2"/>
-      <c r="D93" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" t="s">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D111" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="1"/>
-      <c r="D117" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="1"/>
-      <c r="D118" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="1"/>
-      <c r="D119" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="1"/>
-      <c r="D120" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="1"/>
-      <c r="D121" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="1"/>
-      <c r="D122" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123" s="1"/>
-      <c r="D123" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" s="1"/>
-      <c r="D124" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B125" s="1"/>
-      <c r="D125" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
-      <c r="D126" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="D127" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
-      <c r="D128" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D128" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
-      <c r="D129" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D130" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+      <c r="D130" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="1"/>
       <c r="D131" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="D132" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="1"/>
+      <c r="D133" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+      <c r="D134" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="1"/>
+      <c r="D135" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+      <c r="D136" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+      <c r="D137" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="1"/>
+      <c r="D138" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="1"/>
+      <c r="D141" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="8"/>
+      <c r="C149" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="8"/>
+      <c r="C150" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="8"/>
+      <c r="D151" s="5"/>
+      <c r="E151" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="8"/>
+      <c r="D152" s="5"/>
+      <c r="E152" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="8"/>
+      <c r="D153" s="5"/>
+      <c r="E153" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C154" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C155" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C156" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C157" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C158" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D133" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D136" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D137" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B139" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B140" s="8"/>
-      <c r="D140" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141" s="8"/>
-      <c r="D141" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B142" s="8"/>
-      <c r="D142" s="5"/>
-      <c r="E142" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B143" s="8"/>
-      <c r="D143" s="5"/>
-      <c r="E143" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B144" s="8"/>
-      <c r="D144" s="5"/>
-      <c r="E144" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C145" s="6" t="s">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C159" s="6"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C160" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C161" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C162" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C163" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C164" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C165" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C166" s="13"/>
+      <c r="E166" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C167" s="13"/>
+      <c r="D167" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E167" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C168" s="13"/>
+      <c r="D168" s="4"/>
+      <c r="E168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C169" s="13"/>
+      <c r="D169" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E169" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C170" s="13"/>
+    </row>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C171" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C146" s="6"/>
-      <c r="D146" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C147" s="6"/>
-      <c r="D147" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C148" s="6"/>
-      <c r="D148" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C149" s="6" t="s">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C172" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C173" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C174" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C175" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C176" s="13"/>
+      <c r="D176" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E176" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C177" s="13"/>
+      <c r="D177" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E177" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C178" s="13"/>
+      <c r="D178" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E178" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C179" s="13"/>
+      <c r="D179" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E179" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C180" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C150" s="6"/>
-      <c r="D150" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C151" s="6"/>
-      <c r="D151" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C152" s="6"/>
-      <c r="D152" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C153" s="6" t="s">
+      <c r="D180" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C181" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C182" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C183" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C184" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C185" s="13"/>
+      <c r="D185" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C186" s="13"/>
+      <c r="D186" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E186" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C187" s="13"/>
+      <c r="D187" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E187" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C188" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C189" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C154" s="6"/>
-      <c r="D154" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C155" s="6"/>
-      <c r="D155" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C156" s="6" t="s">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C190" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C191" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C192" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C193" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C157" s="6"/>
-      <c r="D157" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C158" s="6"/>
-      <c r="D158" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C159" s="6"/>
-      <c r="D159" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C160" s="6"/>
-      <c r="E160" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C161" s="6"/>
-      <c r="E161" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C162" s="6"/>
-      <c r="E162" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C163" s="6" t="s">
+    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C194" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>165</v>
+      </c>
+      <c r="H194" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C195" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C196" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C197" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C198" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C199" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C200" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C201" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C164" s="6"/>
-      <c r="D164" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C165" s="6"/>
-      <c r="D165" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C166" s="6"/>
-      <c r="D166" t="s">
+    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C202" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C203" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C167" s="6" t="s">
+    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C204" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D204" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C205" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C206" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C168" s="6"/>
-      <c r="D168" t="s">
-        <v>167</v>
-      </c>
-      <c r="H168" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C169" s="6"/>
-      <c r="D169" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C170" s="6"/>
-      <c r="D170" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C171" s="6"/>
-      <c r="D171" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C172" s="6"/>
-      <c r="D172" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C173" s="6"/>
-      <c r="D173" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C174" s="6"/>
-      <c r="D174" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C175" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C176" s="6"/>
-      <c r="D176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C177" s="6"/>
-      <c r="D177" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C178" s="6"/>
-      <c r="D178" t="s">
+    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C207" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C179" s="6"/>
-      <c r="D179" t="s">
+    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C208" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C180" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D181" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D182" t="s">
-        <v>179</v>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2529,63 +3000,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
         <v>131</v>
       </c>
-      <c r="I4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>201</v>
-      </c>
-      <c r="I7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2595,18 +3066,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="234">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -745,19 +745,13 @@
     <t>có thể sử dụng để truyền dữ liệu</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Conditional</t>
-  </si>
-  <si>
-    <t>React Lists</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
     <t>được xử lí bằng component, html thuần thì sử dụng bằng DOM</t>
+  </si>
+  <si>
+    <t>Bất đồng bộ</t>
+  </si>
+  <si>
+    <t>callback hell</t>
   </si>
 </sst>
 </file>
@@ -996,6 +990,120 @@
         <a:xfrm>
           <a:off x="1857375" y="17173575"/>
           <a:ext cx="6867525" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="40452676"/>
+          <a:ext cx="7343775" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="45024675"/>
+          <a:ext cx="7115175" cy="3781425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="48929925"/>
+          <a:ext cx="7086600" cy="3571875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S218"/>
+  <dimension ref="B2:S236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S100" sqref="S100"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R231" sqref="R231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
@@ -2973,23 +3081,13 @@
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
+      <c r="B212" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="8" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP language\React\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C97149-9D91-4C0A-83DD-A1CA903B1956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="235">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -463,12 +464,6 @@
   </si>
   <si>
     <t>Quy tắc hook</t>
-  </si>
-  <si>
-    <t>Hook chỉ có thể được gọi bên trong các thành phần hàm React.</t>
-  </si>
-  <si>
-    <t>Hook chỉ có thể được gọi ở cấp cao nhất của một thành phần.</t>
   </si>
   <si>
     <t>Hook không thể có điều kiện</t>
@@ -753,11 +748,20 @@
   <si>
     <t>callback hell</t>
   </si>
+  <si>
+    <t>Hook chỉ có thể được gọi bên trong các component function React.</t>
+  </si>
+  <si>
+    <t>Hook chỉ có thể được gọi ở cấp cao nhất của một component</t>
+  </si>
+  <si>
+    <t>chấp nhận 2 đối số useEffect(&lt;function&gt;, &lt;dependency&gt;)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,7 +927,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,7 +1017,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1051,7 +1061,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1089,7 +1105,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1548,16 +1570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1565,136 +1587,136 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D3" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
+      <c r="K13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K13" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>26</v>
       </c>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D51" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1702,35 +1724,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:S236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R231" sqref="R231"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1746,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1754,7 +1776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +1784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1770,7 +1792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1778,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1786,17 +1808,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I12" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1804,15 +1826,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1820,7 +1842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1828,12 +1850,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1841,7 +1863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1852,7 +1874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1863,7 +1885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1874,13 +1896,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="E26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1888,16 +1910,16 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
       <c r="E29" s="4" t="s">
         <v>53</v>
@@ -1906,7 +1928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="E30" s="4" t="s">
         <v>53</v>
@@ -1915,7 +1937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="E31" s="4" t="s">
         <v>53</v>
@@ -1924,40 +1946,40 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="E32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
       <c r="E33" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
       <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
       <c r="E35" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="E36" s="4" t="s">
         <v>53</v>
@@ -1966,7 +1988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="E37" s="4" t="s">
         <v>53</v>
@@ -1975,40 +1997,40 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="E38" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
       <c r="E39" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="E40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="E41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="E42" s="4" t="s">
         <v>53</v>
@@ -2017,34 +2039,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="E43" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
       <c r="E44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
       <c r="E45" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
         <v>3</v>
       </c>
@@ -2052,7 +2074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
       <c r="E47" t="s">
         <v>38</v>
@@ -2061,37 +2083,37 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
       <c r="E48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
       <c r="E49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="E50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="E51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="E52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,19 +2121,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
       <c r="E54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="E55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
@@ -2119,22 +2141,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="E57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="E58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C60" s="2" t="s">
         <v>3</v>
       </c>
@@ -2145,13 +2167,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="E61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="E62" s="4" t="s">
         <v>53</v>
@@ -2160,7 +2182,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="E63" s="4" t="s">
         <v>53</v>
@@ -2169,13 +2191,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
       <c r="E64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
       <c r="E65" s="2" t="s">
         <v>53</v>
@@ -2184,7 +2206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C66" s="2"/>
       <c r="E66" s="2" t="s">
         <v>53</v>
@@ -2193,7 +2215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C67" s="2" t="s">
         <v>3</v>
       </c>
@@ -2204,7 +2226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C68" s="2" t="s">
         <v>3</v>
       </c>
@@ -2212,7 +2234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,19 +2242,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
         <v>3</v>
       </c>
@@ -2240,7 +2262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C73" s="2" t="s">
         <v>3</v>
       </c>
@@ -2248,7 +2270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
         <v>3</v>
       </c>
@@ -2256,7 +2278,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C75" s="2" t="s">
         <v>3</v>
       </c>
@@ -2264,56 +2286,56 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
       <c r="R84" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C85" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C86" s="4" t="s">
         <v>3</v>
       </c>
@@ -2321,24 +2343,24 @@
         <v>62</v>
       </c>
       <c r="R86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>228</v>
+      </c>
+      <c r="R87" t="s">
+        <v>195</v>
+      </c>
+      <c r="S87" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C87" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" t="s">
-        <v>230</v>
-      </c>
-      <c r="R87" t="s">
-        <v>197</v>
-      </c>
-      <c r="S87" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>63</v>
       </c>
@@ -2346,7 +2368,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>65</v>
       </c>
@@ -2354,12 +2376,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C93" s="4" t="s">
         <v>3</v>
       </c>
@@ -2367,7 +2389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C94" s="4" t="s">
         <v>3</v>
       </c>
@@ -2375,12 +2397,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C97" s="2" t="s">
         <v>3</v>
       </c>
@@ -2388,20 +2410,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
         <v>3</v>
       </c>
@@ -2409,7 +2431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C101" s="2"/>
       <c r="D101" s="4" t="s">
         <v>53</v>
@@ -2418,7 +2440,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C102" s="2"/>
       <c r="D102" s="4" t="s">
         <v>53</v>
@@ -2427,58 +2449,58 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
         <v>69</v>
       </c>
@@ -2486,136 +2508,136 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="D126" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="D127" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="D128" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="D129" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="D130" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="D131" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="D132" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="D133" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="D134" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="D135" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="D136" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="D137" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="D138" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="D141" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>72</v>
       </c>
@@ -2623,7 +2645,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="8"/>
       <c r="C149" s="4" t="s">
         <v>3</v>
@@ -2632,7 +2654,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" s="8"/>
       <c r="C150" s="4" t="s">
         <v>3</v>
@@ -2641,453 +2663,458 @@
         <v>144</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" s="8"/>
       <c r="D151" s="5"/>
       <c r="E151" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" s="8"/>
       <c r="D152" s="5"/>
       <c r="E152" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" s="8"/>
       <c r="D153" s="5"/>
       <c r="E153" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C154" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C155" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D155" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C156" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C157" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C156" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C157" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C158" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C159" s="6"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C159" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C160" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D160" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C161" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C162" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C163" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C161" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C162" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D162" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C163" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C164" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D164" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C165" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C166" s="13"/>
       <c r="E166" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C167" s="13"/>
       <c r="D167" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C168" s="13"/>
       <c r="D168" s="4"/>
       <c r="E168" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C169" s="13"/>
       <c r="D169" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E169" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C170" s="13"/>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C171" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C172" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D172" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C173" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C174" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C175" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D175" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C176" s="13"/>
       <c r="D176" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E176" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C177" s="13"/>
       <c r="D177" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E177" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C178" s="13"/>
       <c r="D178" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E178" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C179" s="13"/>
       <c r="D179" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E179" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C180" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C181" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C182" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D182" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C183" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C184" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D183" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D184" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C185" s="13"/>
       <c r="D185" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E185" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C186" s="13"/>
       <c r="D186" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E186" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" s="13"/>
       <c r="D187" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E187" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C188" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C189" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C190" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D190" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C191" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C192" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C191" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D191" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C192" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C193" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C194" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D194" t="s">
+        <v>163</v>
+      </c>
+      <c r="H194" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C195" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" t="s">
         <v>165</v>
       </c>
-      <c r="H194" t="s">
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C196" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C195" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D195" t="s">
+    <row r="197" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C197" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C196" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" t="s">
+    <row r="198" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C198" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C197" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D197" t="s">
+    <row r="199" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C199" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C198" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D198" t="s">
+    <row r="200" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C200" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C199" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C200" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D200" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C201" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C202" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D202" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C203" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C204" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D204" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C205" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C203" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D203" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C204" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D204" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C205" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D205" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C206" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C207" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C208" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3098,21 +3125,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>127</v>
       </c>
@@ -3120,7 +3147,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>129</v>
       </c>
@@ -3128,7 +3155,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>130</v>
       </c>
@@ -3136,7 +3163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>140</v>
       </c>
@@ -3144,17 +3171,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>199</v>
-      </c>
-      <c r="I7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3164,16 +3191,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>104</v>
       </c>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="262">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -637,18 +637,6 @@
   </si>
   <si>
     <t>sau khi xong nên dọn dẹp để khỏi rò rỉ bộ nhớ</t>
-  </si>
-  <si>
-    <t>Timeouts, subscriptions, event listeners</t>
-  </si>
-  <si>
-    <t>một số cái như</t>
-  </si>
-  <si>
-    <t>hủy bỏ nó như</t>
-  </si>
-  <si>
-    <t>clearTimeout, unsubscriptions, removeaddventlistener</t>
   </si>
   <si>
     <t>Nó có thể được sử dụng cùng với useState Hook để chia sẻ trạng thái giữa các thành phần được lồng sâu dễ dàng hơn so với chỉ sử dụng UseState</t>
@@ -753,12 +741,127 @@
   <si>
     <t>callback hell</t>
   </si>
+  <si>
+    <t>D/laravel</t>
+  </si>
+  <si>
+    <t>thư mục gốc</t>
+  </si>
+  <si>
+    <t>D/laravel/my-react-app</t>
+  </si>
+  <si>
+    <t>cd..</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>side effects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là ngôn ngữ chung trong lĩnh vực lập trình, là đang nói tới 1 phần mềm, khi có tác động thì nó dẫn tới dữ liệu của chương trình bị thay đổi</t>
+    </r>
+  </si>
+  <si>
+    <t>hàm này nó nhận 2 đối số useEffect(&lt;function&gt;, &lt;dependency&gt;)</t>
+  </si>
+  <si>
+    <t>Mouted</t>
+  </si>
+  <si>
+    <t>gắn vào</t>
+  </si>
+  <si>
+    <t>Unmouted</t>
+  </si>
+  <si>
+    <t>tháo ra</t>
+  </si>
+  <si>
+    <t>khi được đưa vào component sử dụng thì nó là mouted rồi</t>
+  </si>
+  <si>
+    <t>update DOM</t>
+  </si>
+  <si>
+    <t>call API</t>
+  </si>
+  <si>
+    <t>listen DOM events</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>resize</t>
+  </si>
+  <si>
+    <t>cleanup</t>
+  </si>
+  <si>
+    <t>remove listener / unsubscribe</t>
+  </si>
+  <si>
+    <t>clean timer</t>
+  </si>
+  <si>
+    <t>đối function là bắt buộc, còn dependency là ko bắt buộc</t>
+  </si>
+  <si>
+    <t>vòng đời</t>
+  </si>
+  <si>
+    <t>qua các giai đoạn, react sẽ render và cập nhật 1 giao diện hiệu quả</t>
+  </si>
+  <si>
+    <t>re-render nghĩa là render lại reactDOM</t>
+  </si>
+  <si>
+    <t>effect(callback)</t>
+  </si>
+  <si>
+    <t>effect(callback, [])</t>
+  </si>
+  <si>
+    <t>effect(callback, [depencency])</t>
+  </si>
+  <si>
+    <t>button thì sử dụng onClick</t>
+  </si>
+  <si>
+    <t>input thì sử dụng sự kiện onChange</t>
+  </si>
+  <si>
+    <t>search call api : "json place haberler"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sự kiện window sẽ ko bị mất đi khi unmouted, mà chỉ mất khi ta tắt hẳn trình duyệt, có nghĩa là rò rỉ bộ nhớ </t>
+  </si>
+  <si>
+    <t>cleanup function luôn được gọi trước khi component unmouted</t>
+  </si>
+  <si>
+    <t>cleanup function luôn được gọi trước khi callback được gọi (trừ lần mouted)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +942,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -861,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -885,6 +995,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -958,13 +1071,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1002,13 +1115,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1040,13 +1153,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1078,13 +1191,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1104,6 +1217,44 @@
         <a:xfrm>
           <a:off x="1238250" y="48929925"/>
           <a:ext cx="7086600" cy="3571875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="54854475"/>
+          <a:ext cx="7000875" cy="5734050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N52"/>
+  <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,40 +1807,40 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="12" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="12" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="11"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>217</v>
+      <c r="D52" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1717,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S236"/>
+  <dimension ref="B2:W295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R231" sqref="R231"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S177" sqref="S177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,7 +2039,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -1930,7 +2081,7 @@
         <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
@@ -1939,7 +2090,7 @@
         <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
@@ -1954,7 +2105,7 @@
         <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
@@ -1981,7 +2132,7 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
@@ -1990,7 +2141,7 @@
         <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
@@ -1999,7 +2150,7 @@
         <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
@@ -2023,7 +2174,7 @@
         <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
@@ -2032,7 +2183,7 @@
         <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
@@ -2041,7 +2192,7 @@
         <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
@@ -2310,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
@@ -2329,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R87" t="s">
         <v>197</v>
@@ -2346,25 +2497,33 @@
         <v>64</v>
       </c>
     </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>256</v>
+      </c>
+    </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C93" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
@@ -2372,89 +2531,109 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C95" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" t="s">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="U100" t="s">
+        <v>95</v>
+      </c>
+      <c r="W100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="2"/>
-      <c r="D101" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="U101" t="s">
+        <v>97</v>
+      </c>
+      <c r="W101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E102" t="s">
+        <v>105</v>
+      </c>
+      <c r="U102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C103" s="2"/>
+      <c r="D103" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2475,492 +2654,541 @@
     <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="1"/>
-      <c r="D126" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="D127" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
-      <c r="D128" s="9" t="s">
-        <v>111</v>
+      <c r="D128" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
-      <c r="D129" t="s">
-        <v>112</v>
+      <c r="D129" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
-      <c r="D130" s="9" t="s">
-        <v>113</v>
+      <c r="D130" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
-      <c r="D131" t="s">
-        <v>114</v>
+      <c r="D131" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="D132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
-      <c r="D133" s="9" t="s">
-        <v>116</v>
+      <c r="D133" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
-      <c r="D134" t="s">
-        <v>117</v>
+      <c r="D134" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
-      <c r="D135" s="9" t="s">
-        <v>118</v>
+      <c r="D135" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
-      <c r="D136" t="s">
-        <v>119</v>
+      <c r="D136" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
-      <c r="D138" s="9" t="s">
+      <c r="D138" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="1"/>
+      <c r="D139" s="9" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="1"/>
-      <c r="D141" t="s">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="1"/>
+      <c r="D142" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D142" t="s">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="8" t="s">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="8" t="s">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="8"/>
-      <c r="C149" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" s="8"/>
       <c r="C150" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D150" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" s="8"/>
+      <c r="C151" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="8"/>
-      <c r="D151" s="5"/>
-      <c r="E151" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="8"/>
       <c r="D152" s="5"/>
       <c r="E152" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" s="8"/>
       <c r="D153" s="5"/>
       <c r="E153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" s="8"/>
+      <c r="D154" s="5"/>
+      <c r="E154" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C154" s="6" t="s">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C155" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" t="s">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C156" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C156" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" t="s">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C157" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C157" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" t="s">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C158" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C158" s="6" t="s">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C159" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C159" s="6"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C160" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D160" t="s">
+        <v>235</v>
+      </c>
+      <c r="K160" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C161" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C161" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C162" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C163" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C163" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163" t="s">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C164" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C164" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C165" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D165" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C166" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="13"/>
-      <c r="E166" t="s">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C167" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G167" s="15"/>
+    </row>
+    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C168" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C169" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C170" s="13"/>
+      <c r="D170" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C171" s="13"/>
+      <c r="D171" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C172" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C173" s="13"/>
+      <c r="D173" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E173" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+    </row>
+    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C174" s="13"/>
+      <c r="D174" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C175" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C176" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F176" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C177" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C178" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C179" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C180" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C181" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C182" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C184" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="13"/>
-      <c r="D167" s="4" t="s">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C185" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C186" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C187" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C188" s="13"/>
+      <c r="D188" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E167" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="13"/>
-      <c r="D168" s="4"/>
-      <c r="E168" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="13"/>
-      <c r="D169" s="4" t="s">
+      <c r="E188" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C189" s="13"/>
+      <c r="D189" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E169" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="13"/>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="E189" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C190" s="13"/>
+      <c r="D190" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E190" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="13"/>
-      <c r="D176" s="4" t="s">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C191" s="13"/>
+      <c r="D191" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E191" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C192" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D192" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="13"/>
-      <c r="D177" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E177" t="s">
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C193" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="10" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="13"/>
-      <c r="D178" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E178" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="13"/>
-      <c r="D179" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E179" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D183" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D184" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C185" s="13"/>
-      <c r="D185" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E185" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C186" s="13"/>
-      <c r="D186" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E186" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C187" s="13"/>
-      <c r="D187" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E187" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D188" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C189" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C190" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D190" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C191" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D191" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C192" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C193" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="194" spans="3:8" x14ac:dyDescent="0.25">
@@ -2968,10 +3196,7 @@
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>165</v>
-      </c>
-      <c r="H194" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="195" spans="3:8" x14ac:dyDescent="0.25">
@@ -2979,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196" spans="3:8" x14ac:dyDescent="0.25">
@@ -2987,31 +3212,34 @@
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="197" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C197" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D197" t="s">
-        <v>169</v>
+      <c r="C197" s="13"/>
+      <c r="D197" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E197" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="198" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C198" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D198" t="s">
-        <v>170</v>
+      <c r="C198" s="13"/>
+      <c r="D198" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E198" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="199" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C199" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" t="s">
-        <v>171</v>
+      <c r="C199" s="13"/>
+      <c r="D199" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E199" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="200" spans="3:8" x14ac:dyDescent="0.25">
@@ -3019,20 +3247,15 @@
         <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C201" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="C201" s="13"/>
     </row>
     <row r="202" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C202" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D202" t="s">
-        <v>173</v>
+      <c r="C202" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="3:8" x14ac:dyDescent="0.25">
@@ -3040,7 +3263,7 @@
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="3:8" x14ac:dyDescent="0.25">
@@ -3048,7 +3271,7 @@
         <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205" spans="3:8" x14ac:dyDescent="0.25">
@@ -3056,12 +3279,12 @@
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="206" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C206" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="207" spans="3:8" x14ac:dyDescent="0.25">
@@ -3069,7 +3292,10 @@
         <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>176</v>
+        <v>165</v>
+      </c>
+      <c r="H207" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="208" spans="3:8" x14ac:dyDescent="0.25">
@@ -3077,17 +3303,144 @@
         <v>3</v>
       </c>
       <c r="D208" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C209" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C210" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C211" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C212" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C213" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C214" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C215" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C216" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C217" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C218" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C219" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C220" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C221" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="8" t="s">
-        <v>233</v>
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C223" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D223" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C226" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E226" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D295" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3102,7 +3455,7 @@
   <dimension ref="C2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H20"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3150,6 +3503,30 @@
       </c>
       <c r="I7" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="273">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -855,6 +855,39 @@
   </si>
   <si>
     <t>cleanup function luôn được gọi trước khi callback được gọi (trừ lần mouted)</t>
+  </si>
+  <si>
+    <t>dùng thường xuyên</t>
+  </si>
+  <si>
+    <t>3 cái thường dùng</t>
+  </si>
+  <si>
+    <t>HOC</t>
+  </si>
+  <si>
+    <t>higher order component</t>
+  </si>
+  <si>
+    <t>render props</t>
+  </si>
+  <si>
+    <t>chỉ sử dụng trong function component</t>
+  </si>
+  <si>
+    <t>sử dụng đc cho cả class và function component</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>tránh render 1 cách ko cần thiết</t>
+  </si>
+  <si>
+    <t>useState sử dụng với những component có state đơn giản : kiểu chuỗi số, object, array, số lượng ít…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useReducer sử dụng cho các component phức tạp </t>
   </si>
 </sst>
 </file>
@@ -1115,13 +1148,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1153,13 +1186,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1191,13 +1224,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1229,13 +1262,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1702,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W295"/>
+  <dimension ref="B2:W334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S177" sqref="S177"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P216" sqref="P216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,6 +2910,9 @@
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>50</v>
+      </c>
       <c r="C159" s="6" t="s">
         <v>96</v>
       </c>
@@ -3051,23 +3087,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C177" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C178" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C179" s="13" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3117,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C180" s="13" t="s">
         <v>3</v>
       </c>
@@ -3083,7 +3125,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C181" s="13" t="s">
         <v>3</v>
       </c>
@@ -3091,7 +3133,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C182" s="13" t="s">
         <v>3</v>
       </c>
@@ -3099,7 +3141,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>50</v>
       </c>
@@ -3107,7 +3149,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C184" s="13" t="s">
         <v>3</v>
       </c>
@@ -3115,7 +3157,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C185" s="13" t="s">
         <v>3</v>
       </c>
@@ -3123,7 +3165,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C186" s="13" t="s">
         <v>3</v>
       </c>
@@ -3131,7 +3173,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C187" s="13" t="s">
         <v>3</v>
       </c>
@@ -3139,7 +3181,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C188" s="13"/>
       <c r="D188" s="4" t="s">
         <v>53</v>
@@ -3148,7 +3190,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C189" s="13"/>
       <c r="D189" s="4" t="s">
         <v>53</v>
@@ -3157,7 +3199,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C190" s="13"/>
       <c r="D190" s="4" t="s">
         <v>53</v>
@@ -3166,7 +3208,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C191" s="13"/>
       <c r="D191" s="4" t="s">
         <v>53</v>
@@ -3175,7 +3217,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>50</v>
+      </c>
       <c r="C192" s="6" t="s">
         <v>98</v>
       </c>
@@ -3183,7 +3228,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C193" s="13" t="s">
         <v>3</v>
       </c>
@@ -3191,7 +3236,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C194" s="13" t="s">
         <v>3</v>
       </c>
@@ -3199,7 +3244,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C195" s="13" t="s">
         <v>3</v>
       </c>
@@ -3207,7 +3252,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C196" s="13" t="s">
         <v>3</v>
       </c>
@@ -3215,7 +3260,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C197" s="13"/>
       <c r="D197" s="4" t="s">
         <v>53</v>
@@ -3224,7 +3269,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C198" s="13"/>
       <c r="D198" s="4" t="s">
         <v>53</v>
@@ -3233,7 +3278,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C199" s="13"/>
       <c r="D199" s="4" t="s">
         <v>53</v>
@@ -3242,7 +3287,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C200" s="13" t="s">
         <v>3</v>
       </c>
@@ -3250,15 +3295,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C201" s="13"/>
     </row>
-    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C202" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C203" s="13" t="s">
         <v>3</v>
       </c>
@@ -3266,7 +3311,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C204" s="13" t="s">
         <v>3</v>
       </c>
@@ -3274,7 +3319,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C205" s="13" t="s">
         <v>3</v>
       </c>
@@ -3282,165 +3327,224 @@
         <v>164</v>
       </c>
     </row>
-    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C206" s="6" t="s">
+    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C206" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D206" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C207" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C208" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C207" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D207" t="s">
+    <row r="209" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C209" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" t="s">
         <v>165</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H209" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C208" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D208" t="s">
+    <row r="210" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C210" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C209" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D209" t="s">
+    <row r="211" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C211" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C210" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D210" t="s">
+    <row r="212" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C212" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C211" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D211" t="s">
+    <row r="213" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C213" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C212" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" t="s">
+    <row r="214" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C214" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D214" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C213" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D213" t="s">
+    <row r="215" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C215" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C214" s="6" t="s">
+    <row r="216" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C216" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C215" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D215" t="s">
+    <row r="217" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C217" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C216" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D216" t="s">
+    <row r="218" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C218" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C217" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D217" t="s">
+    <row r="219" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C219" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C218" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D218" t="s">
+    <row r="220" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C220" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C219" s="6" t="s">
+    <row r="221" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C221" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C222" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C220" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D220" t="s">
+    <row r="223" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C223" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C221" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D221" t="s">
+    <row r="224" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C224" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C223" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D223" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D224" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C226" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D226" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C229" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E229" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="8" t="s">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="8" t="s">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B295" s="8" t="s">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D298" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="331" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="332" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>72</v>
+      </c>
+      <c r="I332" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="333" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C333" t="s">
+        <v>269</v>
+      </c>
+      <c r="D333" t="s">
+        <v>264</v>
+      </c>
+      <c r="E333" t="s">
+        <v>265</v>
+      </c>
+      <c r="I333" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="334" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="285">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -631,9 +631,6 @@
   </si>
   <si>
     <t xml:space="preserve">thêm react route vào </t>
-  </si>
-  <si>
-    <t>bug</t>
   </si>
   <si>
     <t>sau khi xong nên dọn dẹp để khỏi rò rỉ bộ nhớ</t>
@@ -889,12 +886,51 @@
   <si>
     <t xml:space="preserve">useReducer sử dụng cho các component phức tạp </t>
   </si>
+  <si>
+    <t>1. cài đặt thư viện để webpack : "cutomize-cra"</t>
+  </si>
+  <si>
+    <t>2. cài đặt babel plugin</t>
+  </si>
+  <si>
+    <t>cài sass</t>
+  </si>
+  <si>
+    <t>reset css normalize npm</t>
+  </si>
+  <si>
+    <t>npm install --save normalize.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extension tạo tắt function componet </t>
+  </si>
+  <si>
+    <t>extenstion gom nhóm "htmltagwrap"</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>là hàm (function) được truyền qua đối số khi gọi hàm khác</t>
+  </si>
+  <si>
+    <t>thư viện className</t>
+  </si>
+  <si>
+    <t>npm i classnames</t>
+  </si>
+  <si>
+    <t>npm i -D sass</t>
+  </si>
+  <si>
+    <t>npm i customize-cra react-app-rewired -D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,6 +1018,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Var(--fontStack-monospace, ui-m"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1004,7 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1031,6 +1078,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1186,13 +1240,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1224,13 +1278,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1262,13 +1316,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1288,6 +1342,44 @@
         <a:xfrm>
           <a:off x="1219200" y="54854475"/>
           <a:ext cx="7000875" cy="5734050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333499" y="49110900"/>
+          <a:ext cx="2705101" cy="1914525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1739,9 +1831,9 @@
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1749,42 +1841,42 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14">
       <c r="D3" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="N4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14">
       <c r="N5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14">
       <c r="N6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14">
       <c r="N7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14">
       <c r="N8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14">
       <c r="N9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1792,12 +1884,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14">
       <c r="D12" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14">
       <c r="D13" s="1" t="s">
         <v>184</v>
       </c>
@@ -1805,75 +1897,75 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14">
       <c r="D14" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14">
       <c r="C16" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="D17" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="D18" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4">
       <c r="D21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4">
       <c r="C23" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3">
       <c r="C47" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3">
       <c r="C48" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6">
       <c r="D49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6">
       <c r="D50" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6">
       <c r="D51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:6">
       <c r="D52" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6">
       <c r="D53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1887,34 +1979,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:20">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="15.75">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="T8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="T9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W334"/>
+  <dimension ref="B2:W347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P216" sqref="P216"/>
+    <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I264" sqref="I264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1922,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1930,7 +2086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1938,7 +2094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="I7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1946,7 +2102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="I8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1954,7 +2110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="I9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +2118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="I10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1970,17 +2126,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="I12" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1988,7 +2144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +2152,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2004,7 +2160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2012,12 +2168,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2025,7 +2181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -2036,7 +2192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
@@ -2047,7 +2203,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -2058,13 +2214,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="C26" s="2"/>
       <c r="E26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -2072,16 +2228,16 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="C28" s="2"/>
       <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="C29" s="2"/>
       <c r="E29" s="4" t="s">
         <v>53</v>
@@ -2090,7 +2246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="C30" s="2"/>
       <c r="E30" s="4" t="s">
         <v>53</v>
@@ -2099,7 +2255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="C31" s="2"/>
       <c r="E31" s="4" t="s">
         <v>53</v>
@@ -2108,40 +2264,40 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="C32" s="2"/>
       <c r="E32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" s="2"/>
       <c r="E33" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
       <c r="C34" s="2"/>
       <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6">
       <c r="C35" s="2"/>
       <c r="E35" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
       <c r="C36" s="2"/>
       <c r="E36" s="4" t="s">
         <v>53</v>
@@ -2150,7 +2306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6">
       <c r="C37" s="2"/>
       <c r="E37" s="4" t="s">
         <v>53</v>
@@ -2159,40 +2315,40 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6">
       <c r="C38" s="2"/>
       <c r="E38" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
       <c r="C39" s="2"/>
       <c r="E39" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
       <c r="C40" s="2"/>
       <c r="E40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
       <c r="C41" s="2"/>
       <c r="E41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6">
       <c r="C42" s="2"/>
       <c r="E42" s="4" t="s">
         <v>53</v>
@@ -2201,34 +2357,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6">
       <c r="C43" s="2"/>
       <c r="E43" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
       <c r="C44" s="2"/>
       <c r="E44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
       <c r="C45" s="2"/>
       <c r="E45" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
       <c r="C46" s="2" t="s">
         <v>3</v>
       </c>
@@ -2236,7 +2392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6">
       <c r="C47" s="2"/>
       <c r="E47" t="s">
         <v>38</v>
@@ -2245,37 +2401,37 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6">
       <c r="C48" s="2"/>
       <c r="E48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6">
       <c r="C49" s="2"/>
       <c r="E49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6">
       <c r="C50" s="2"/>
       <c r="E50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6">
       <c r="C51" s="2"/>
       <c r="E51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6">
       <c r="C52" s="2"/>
       <c r="E52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6">
       <c r="C53" s="2" t="s">
         <v>3</v>
       </c>
@@ -2283,19 +2439,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6">
       <c r="C54" s="2"/>
       <c r="E54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6">
       <c r="C55" s="2"/>
       <c r="E55" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6">
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
@@ -2303,22 +2459,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6">
       <c r="C57" s="2"/>
       <c r="E57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6">
       <c r="C58" s="2"/>
       <c r="E58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6">
       <c r="C60" s="2" t="s">
         <v>3</v>
       </c>
@@ -2329,13 +2485,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6">
       <c r="C61" s="2"/>
       <c r="E61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6">
       <c r="C62" s="2"/>
       <c r="E62" s="4" t="s">
         <v>53</v>
@@ -2344,7 +2500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6">
       <c r="C63" s="2"/>
       <c r="E63" s="4" t="s">
         <v>53</v>
@@ -2353,13 +2509,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6">
       <c r="C64" s="2"/>
       <c r="E64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6">
       <c r="C65" s="2"/>
       <c r="E65" s="2" t="s">
         <v>53</v>
@@ -2368,7 +2524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6">
       <c r="C66" s="2"/>
       <c r="E66" s="2" t="s">
         <v>53</v>
@@ -2377,7 +2533,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6">
       <c r="C67" s="2" t="s">
         <v>3</v>
       </c>
@@ -2388,7 +2544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6">
       <c r="C68" s="2" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6">
       <c r="B69" s="1" t="s">
         <v>56</v>
       </c>
@@ -2404,19 +2560,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6">
       <c r="C72" s="2" t="s">
         <v>3</v>
       </c>
@@ -2424,7 +2580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6">
       <c r="C73" s="2" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6">
       <c r="C74" s="2" t="s">
         <v>3</v>
       </c>
@@ -2440,7 +2596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6">
       <c r="C75" s="2" t="s">
         <v>3</v>
       </c>
@@ -2448,37 +2604,37 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6">
       <c r="B77" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6">
       <c r="D78" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6">
       <c r="D79" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6">
       <c r="D80" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:19">
       <c r="D81" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:19">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:19">
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -2489,15 +2645,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:19">
       <c r="C85" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19">
       <c r="C86" s="4" t="s">
         <v>3</v>
       </c>
@@ -2508,12 +2664,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:19">
       <c r="C87" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R87" t="s">
         <v>197</v>
@@ -2522,7 +2678,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:19">
       <c r="B88" s="1" t="s">
         <v>63</v>
       </c>
@@ -2530,23 +2686,23 @@
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:19">
       <c r="C89" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19">
+      <c r="C90" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C90" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:19">
       <c r="B91" s="1" t="s">
         <v>65</v>
       </c>
@@ -2554,12 +2710,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:19">
       <c r="B93" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:19">
       <c r="C94" s="4" t="s">
         <v>3</v>
       </c>
@@ -2567,7 +2723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:19">
       <c r="C95" s="4" t="s">
         <v>3</v>
       </c>
@@ -2575,12 +2731,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:23">
       <c r="B97" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:23">
       <c r="C98" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,15 +2744,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:23">
       <c r="C99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23">
       <c r="B100" s="1" t="s">
         <v>68</v>
       </c>
@@ -2607,7 +2763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:23">
       <c r="C101" s="2" t="s">
         <v>3</v>
       </c>
@@ -2621,7 +2777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:23">
       <c r="C102" s="2"/>
       <c r="D102" s="4" t="s">
         <v>53</v>
@@ -2633,7 +2789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:23">
       <c r="C103" s="2"/>
       <c r="D103" s="4" t="s">
         <v>53</v>
@@ -2642,58 +2798,58 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:23">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:23">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:23">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:23">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" ht="15.75" customHeight="1">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" ht="15.75" customHeight="1">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" ht="15.75" customHeight="1">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" ht="15.75" customHeight="1">
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" ht="15.75" customHeight="1">
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" ht="15.75" customHeight="1">
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" ht="15.75" customHeight="1">
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4">
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4">
       <c r="B121" s="1" t="s">
         <v>69</v>
       </c>
@@ -2701,136 +2857,136 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4">
       <c r="B123" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4">
       <c r="B125" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4">
       <c r="B126" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4">
       <c r="B127" s="1"/>
       <c r="D127" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4">
       <c r="B128" s="1"/>
       <c r="D128" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4">
       <c r="B129" s="1"/>
       <c r="D129" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4">
       <c r="B130" s="1"/>
       <c r="D130" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4">
       <c r="B131" s="1"/>
       <c r="D131" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4">
       <c r="B132" s="1"/>
       <c r="D132" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4">
       <c r="B133" s="1"/>
       <c r="D133" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4">
       <c r="B134" s="1"/>
       <c r="D134" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4">
       <c r="B135" s="1"/>
       <c r="D135" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4">
       <c r="B136" s="1"/>
       <c r="D136" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4">
       <c r="B137" s="1"/>
       <c r="D137" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4">
       <c r="B138" s="1"/>
       <c r="D138" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4">
       <c r="B139" s="1"/>
       <c r="D139" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4">
       <c r="D140" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4">
       <c r="D141" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4">
       <c r="B142" s="1"/>
       <c r="D142" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4">
       <c r="D143" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="D146" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="D147" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" s="8" t="s">
         <v>72</v>
       </c>
@@ -2838,7 +2994,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11">
       <c r="B150" s="8"/>
       <c r="C150" s="4" t="s">
         <v>3</v>
@@ -2847,7 +3003,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" s="8"/>
       <c r="C151" s="4" t="s">
         <v>3</v>
@@ -2856,28 +3012,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" s="8"/>
       <c r="D152" s="5"/>
       <c r="E152" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11">
       <c r="B153" s="8"/>
       <c r="D153" s="5"/>
       <c r="E153" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="8"/>
       <c r="D154" s="5"/>
       <c r="E154" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11">
       <c r="B155" t="s">
         <v>50</v>
       </c>
@@ -2885,7 +3041,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11">
       <c r="C156" s="13" t="s">
         <v>3</v>
       </c>
@@ -2893,7 +3049,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="C157" s="13" t="s">
         <v>3</v>
       </c>
@@ -2901,7 +3057,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="C158" s="13" t="s">
         <v>3</v>
       </c>
@@ -2909,7 +3065,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11">
       <c r="B159" t="s">
         <v>50</v>
       </c>
@@ -2917,18 +3073,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11">
       <c r="C160" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K160" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7">
       <c r="C161" s="13" t="s">
         <v>3</v>
       </c>
@@ -2936,15 +3092,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7">
       <c r="C162" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7">
       <c r="C163" s="13" t="s">
         <v>3</v>
       </c>
@@ -2952,7 +3108,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7">
       <c r="C164" s="13" t="s">
         <v>3</v>
       </c>
@@ -2960,28 +3116,28 @@
         <v>153</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7">
       <c r="C165" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7">
       <c r="C166" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7">
       <c r="C167" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E167" s="15"/>
       <c r="F167" s="15" t="s">
@@ -2989,12 +3145,12 @@
       </c>
       <c r="G167" s="15"/>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7">
       <c r="C168" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E168" s="15" t="s">
         <v>50</v>
@@ -3002,146 +3158,146 @@
       <c r="F168" s="15"/>
       <c r="G168" s="15"/>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7">
       <c r="C169" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7">
       <c r="C170" s="13"/>
       <c r="D170" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F170" s="15"/>
       <c r="G170" s="15"/>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7">
       <c r="C171" s="13"/>
       <c r="D171" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F171" s="15"/>
       <c r="G171" s="15"/>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7">
       <c r="C172" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
       <c r="G172" s="15"/>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7">
       <c r="C173" s="13"/>
       <c r="D173" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E173" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F173" s="15"/>
       <c r="G173" s="15"/>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7">
       <c r="C174" s="13"/>
       <c r="D174" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E174" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F174" s="15"/>
       <c r="G174" s="15"/>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7">
       <c r="C175" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D175" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7">
+      <c r="C176" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" s="10" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C176" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="F176" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7">
       <c r="C177" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D177" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F177" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="C178" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F177" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C178" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="G178" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
       <c r="C179" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D179" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="C180" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C180" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D180" s="10" t="s">
+    <row r="181" spans="2:7">
+      <c r="C181" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C181" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="10" t="s">
+    <row r="182" spans="2:7">
+      <c r="C182" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C182" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7">
       <c r="B183" t="s">
         <v>50</v>
       </c>
@@ -3149,23 +3305,23 @@
         <v>97</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7">
       <c r="C184" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
       <c r="C185" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
       <c r="C186" s="13" t="s">
         <v>3</v>
       </c>
@@ -3173,7 +3329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7">
       <c r="C187" s="13" t="s">
         <v>3</v>
       </c>
@@ -3181,43 +3337,43 @@
         <v>155</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7">
       <c r="C188" s="13"/>
       <c r="D188" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E188" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
       <c r="C189" s="13"/>
       <c r="D189" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E189" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7">
       <c r="C190" s="13"/>
       <c r="D190" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E190" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7">
       <c r="C191" s="13"/>
       <c r="D191" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E191" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7">
       <c r="B192" t="s">
         <v>50</v>
       </c>
@@ -3225,18 +3381,18 @@
         <v>98</v>
       </c>
       <c r="D192" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5">
+      <c r="C193" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C193" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:5">
       <c r="C194" s="13" t="s">
         <v>3</v>
       </c>
@@ -3244,7 +3400,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:5">
       <c r="C195" s="13" t="s">
         <v>3</v>
       </c>
@@ -3252,7 +3408,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:5">
       <c r="C196" s="13" t="s">
         <v>3</v>
       </c>
@@ -3260,7 +3416,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:5">
       <c r="C197" s="13"/>
       <c r="D197" s="4" t="s">
         <v>53</v>
@@ -3269,7 +3425,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:5">
       <c r="C198" s="13"/>
       <c r="D198" s="4" t="s">
         <v>53</v>
@@ -3278,7 +3434,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:5">
       <c r="C199" s="13"/>
       <c r="D199" s="4" t="s">
         <v>53</v>
@@ -3287,23 +3443,23 @@
         <v>161</v>
       </c>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:5">
       <c r="C200" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5">
       <c r="C201" s="13"/>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:5">
       <c r="C202" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:5">
       <c r="C203" s="13" t="s">
         <v>3</v>
       </c>
@@ -3311,7 +3467,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:5">
       <c r="C204" s="13" t="s">
         <v>3</v>
       </c>
@@ -3319,7 +3475,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:5">
       <c r="C205" s="13" t="s">
         <v>3</v>
       </c>
@@ -3327,28 +3483,28 @@
         <v>164</v>
       </c>
     </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:5">
       <c r="C206" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D206" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5">
+      <c r="C207" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C207" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D207" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:5">
       <c r="C208" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:8">
       <c r="C209" s="13" t="s">
         <v>3</v>
       </c>
@@ -3359,7 +3515,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="210" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:8">
       <c r="C210" s="13" t="s">
         <v>3</v>
       </c>
@@ -3367,7 +3523,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="211" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:8">
       <c r="C211" s="13" t="s">
         <v>3</v>
       </c>
@@ -3375,7 +3531,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="212" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:8">
       <c r="C212" s="13" t="s">
         <v>3</v>
       </c>
@@ -3383,7 +3539,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="213" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:8">
       <c r="C213" s="13" t="s">
         <v>3</v>
       </c>
@@ -3391,7 +3547,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="214" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:8">
       <c r="C214" s="13" t="s">
         <v>3</v>
       </c>
@@ -3399,7 +3555,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:8">
       <c r="C215" s="13" t="s">
         <v>3</v>
       </c>
@@ -3407,12 +3563,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="216" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:8">
       <c r="C216" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:8">
       <c r="C217" s="13" t="s">
         <v>3</v>
       </c>
@@ -3420,7 +3576,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="218" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:8">
       <c r="C218" s="13" t="s">
         <v>3</v>
       </c>
@@ -3428,7 +3584,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="219" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:8">
       <c r="C219" s="13" t="s">
         <v>3</v>
       </c>
@@ -3436,7 +3592,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="220" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:8">
       <c r="C220" s="13" t="s">
         <v>3</v>
       </c>
@@ -3444,20 +3600,20 @@
         <v>175</v>
       </c>
     </row>
-    <row r="221" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:8">
       <c r="C221" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="222" spans="3:8" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8">
       <c r="C222" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:8">
       <c r="C223" s="13" t="s">
         <v>3</v>
       </c>
@@ -3465,7 +3621,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="224" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:8">
       <c r="C224" s="13" t="s">
         <v>3</v>
       </c>
@@ -3473,78 +3629,88 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C226" s="13" t="s">
+    <row r="226" spans="2:5">
+      <c r="C226" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D226" t="s">
         <v>236</v>
       </c>
-      <c r="D226" t="s">
+    </row>
+    <row r="227" spans="2:5">
+      <c r="D227" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5">
+      <c r="C229" s="16" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D227" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C229" s="13" t="s">
+      <c r="E229" t="s">
         <v>238</v>
       </c>
-      <c r="E229" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="2:5">
       <c r="B232" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="C257" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B298" s="8" t="s">
+    <row r="311" spans="2:4">
+      <c r="B311" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D311" t="s">
         <v>250</v>
       </c>
-      <c r="D298" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="331" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B331" t="s">
-        <v>3</v>
-      </c>
-      <c r="C331" t="s">
+    </row>
+    <row r="344" spans="2:9">
+      <c r="B344" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="345" spans="2:9">
+      <c r="D345" t="s">
+        <v>72</v>
+      </c>
+      <c r="I345" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="346" spans="2:9">
+      <c r="C346" t="s">
+        <v>268</v>
+      </c>
+      <c r="D346" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="332" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D332" t="s">
-        <v>72</v>
-      </c>
-      <c r="I332" t="s">
+      <c r="E346" t="s">
+        <v>264</v>
+      </c>
+      <c r="I346" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="333" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C333" t="s">
-        <v>269</v>
-      </c>
-      <c r="D333" t="s">
-        <v>264</v>
-      </c>
-      <c r="E333" t="s">
+    <row r="347" spans="2:9">
+      <c r="D347" t="s">
         <v>265</v>
-      </c>
-      <c r="I333" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="334" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D334" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3556,20 +3722,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I29"/>
+  <dimension ref="C2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:9">
       <c r="C2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9">
       <c r="D3" s="1" t="s">
         <v>127</v>
       </c>
@@ -3577,7 +3743,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9">
       <c r="D4" s="1" t="s">
         <v>129</v>
       </c>
@@ -3585,7 +3751,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9">
       <c r="D5" s="1" t="s">
         <v>130</v>
       </c>
@@ -3593,7 +3759,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9">
       <c r="D6" s="1" t="s">
         <v>140</v>
       </c>
@@ -3601,7 +3767,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9">
       <c r="D7" s="1" t="s">
         <v>199</v>
       </c>
@@ -3609,33 +3775,28 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" t="s">
         <v>230</v>
       </c>
-      <c r="I8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="3:9">
       <c r="D9" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="D10" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="I10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3652,9 +3813,9 @@
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
         <v>104</v>
       </c>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP language\React\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164684CE-79FC-416F-B538-FA6BA6EFF18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="5760" yWindow="3384" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -929,7 +930,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1123,7 +1124,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1214,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1251,7 +1258,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1289,7 +1302,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1327,7 +1346,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1365,7 +1390,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1824,14 +1855,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2">
@@ -1970,7 +2001,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1978,14 +2009,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="2:20">
       <c r="B3">
@@ -2017,7 +2048,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="15.75">
+    <row r="6" spans="2:20" ht="15.6">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2056,14 +2087,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W347"/>
   <sheetViews>
     <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I264" sqref="I264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="D2" t="s">
@@ -3721,14 +3752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="3:9">
       <c r="C2" t="s">
@@ -3806,14 +3837,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="5" spans="3:3">
       <c r="C5" t="s">

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP language\React\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164684CE-79FC-416F-B538-FA6BA6EFF18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3384" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3390" windowWidth="17280" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="291">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -926,11 +925,29 @@
   <si>
     <t>npm i customize-cra react-app-rewired -D</t>
   </si>
+  <si>
+    <t>cài font awesome</t>
+  </si>
+  <si>
+    <t>copy @font đó vào package.json , sau đó npm i</t>
+  </si>
+  <si>
+    <t>npm I @tippyjs/react</t>
+  </si>
+  <si>
+    <t>cat package.json | grep tippy</t>
+  </si>
+  <si>
+    <t>thư viện hỗ trợ tippy (dạng như tooltip)</t>
+  </si>
+  <si>
+    <t>search gg "tippy react props"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1855,14 +1872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2">
@@ -2001,7 +2018,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -2009,14 +2026,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:T9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:20">
       <c r="B3">
@@ -2048,7 +2065,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="15.6">
+    <row r="6" spans="2:20" ht="15.75">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2071,13 +2088,39 @@
       </c>
     </row>
     <row r="8" spans="2:20">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" t="s">
+        <v>286</v>
+      </c>
       <c r="T8" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="9" spans="2:20">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" t="s">
+        <v>287</v>
+      </c>
+      <c r="L9" t="s">
+        <v>290</v>
+      </c>
       <c r="T9" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="H10" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2087,14 +2130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W347"/>
   <sheetViews>
     <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I264" sqref="I264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="D2" t="s">
@@ -3752,14 +3795,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:9">
       <c r="C2" t="s">
@@ -3837,14 +3880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="3:3">
       <c r="C5" t="s">

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="300">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -942,6 +942,33 @@
   </si>
   <si>
     <t>search gg "tippy react props"</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>để viết tắt cho /src</t>
+  </si>
+  <si>
+    <t>&lt;tiipy&gt;</t>
+  </si>
+  <si>
+    <t>thẻ này để bọc, toolip</t>
+  </si>
+  <si>
+    <t>nó có 1 số thuộc tính như</t>
+  </si>
+  <si>
+    <t>interactive</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>các index.js đều nên có 1 .scss riêng</t>
+  </si>
+  <si>
+    <t>popper là để làm cái submenu</t>
   </si>
 </sst>
 </file>
@@ -1875,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2027,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:T10"/>
+  <dimension ref="B3:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2121,6 +2148,62 @@
     <row r="10" spans="2:20">
       <c r="H10" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10">
+      <c r="G19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>291</v>
+      </c>
+      <c r="I19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10">
+      <c r="G20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>293</v>
+      </c>
+      <c r="I20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10">
+      <c r="G21" s="4"/>
+      <c r="I21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10">
+      <c r="G22" s="4"/>
+      <c r="J22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="G23" s="4"/>
+      <c r="J23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10">
+      <c r="G24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10">
+      <c r="G25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2131,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W347"/>
+  <dimension ref="B2:S347"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I264" sqref="I264"/>
+    <sheetView topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J352" sqref="J352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2805,12 +2888,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="2:23">
+    <row r="97" spans="2:5">
       <c r="B97" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="2:23">
+    <row r="98" spans="2:5">
       <c r="C98" s="2" t="s">
         <v>3</v>
       </c>
@@ -2818,7 +2901,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="2:23">
+    <row r="99" spans="2:5">
       <c r="C99" s="2" t="s">
         <v>3</v>
       </c>
@@ -2826,32 +2909,20 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="2:23">
+    <row r="100" spans="2:5">
       <c r="B100" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U100" t="s">
-        <v>95</v>
-      </c>
-      <c r="W100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="2:23">
+    </row>
+    <row r="101" spans="2:5">
       <c r="C101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D101" t="s">
         <v>91</v>
       </c>
-      <c r="U101" t="s">
-        <v>97</v>
-      </c>
-      <c r="W101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="2:23">
+    </row>
+    <row r="102" spans="2:5">
       <c r="C102" s="2"/>
       <c r="D102" s="4" t="s">
         <v>53</v>
@@ -2859,11 +2930,8 @@
       <c r="E102" t="s">
         <v>105</v>
       </c>
-      <c r="U102" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="2:23">
+    </row>
+    <row r="103" spans="2:5">
       <c r="C103" s="2"/>
       <c r="D103" s="4" t="s">
         <v>53</v>
@@ -2872,31 +2940,31 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="2:23">
+    <row r="104" spans="2:5">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="2:23">
+    <row r="105" spans="2:5">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="2:23">
+    <row r="106" spans="2:5">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="2:23">
+    <row r="107" spans="2:5">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="2:23">
+    <row r="108" spans="2:5">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="2:23">
+    <row r="109" spans="2:5">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="2:23">
+    <row r="110" spans="2:5">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:23">
+    <row r="111" spans="2:5">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="2:23">
+    <row r="112" spans="2:5">
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="2:4" ht="15.75" customHeight="1">
@@ -2960,7 +3028,7 @@
     </row>
     <row r="129" spans="2:4">
       <c r="B129" s="1"/>
-      <c r="D129" s="9" t="s">
+      <c r="C129" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2972,7 +3040,7 @@
     </row>
     <row r="131" spans="2:4">
       <c r="B131" s="1"/>
-      <c r="D131" s="9" t="s">
+      <c r="C131" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2990,7 +3058,7 @@
     </row>
     <row r="134" spans="2:4">
       <c r="B134" s="1"/>
-      <c r="D134" s="9" t="s">
+      <c r="C134" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3002,7 +3070,7 @@
     </row>
     <row r="136" spans="2:4">
       <c r="B136" s="1"/>
-      <c r="D136" s="9" t="s">
+      <c r="C136" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3020,7 +3088,7 @@
     </row>
     <row r="139" spans="2:4">
       <c r="B139" s="1"/>
-      <c r="D139" s="9" t="s">
+      <c r="C139" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3883,8 +3951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="333">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -969,6 +969,105 @@
   </si>
   <si>
     <t>popper là để làm cái submenu</t>
+  </si>
+  <si>
+    <t>xử lí lấy hình ảnh mặc định, nếu như link ảnh bị hư, sẽ hiện mặc định</t>
+  </si>
+  <si>
+    <t>setTimeout(() =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    debugger;</t>
+  </si>
+  <si>
+    <t>}, 2000)</t>
+  </si>
+  <si>
+    <t>nên viết component cho từng icon</t>
+  </si>
+  <si>
+    <t>tạo ảnh tượng trưng "create placeholder image"</t>
+  </si>
+  <si>
+    <t>call api cần</t>
+  </si>
+  <si>
+    <t>promise</t>
+  </si>
+  <si>
+    <t>fetch api</t>
+  </si>
+  <si>
+    <t>resful api</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>https://tiktok.fullstack.edu.vn/api/users/search?q=hoaa&amp;type=less</t>
+  </si>
+  <si>
+    <t>đường dẫn path</t>
+  </si>
+  <si>
+    <t>https://tiktok.fullstack.edu.vn/api/users/search</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>query parameter, truyền theo dạng key = value</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>để thêm nhiều điều kiện tìm kiếm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type=less </t>
+  </si>
+  <si>
+    <t>type = more</t>
+  </si>
+  <si>
+    <t>ít</t>
+  </si>
+  <si>
+    <t>nhiều</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>là mã hóa của dấu cách "space"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dấu "?" </t>
+  </si>
+  <si>
+    <t>là để phân cách giữa path và query parameter</t>
+  </si>
+  <si>
+    <t>kết quả tìm kiếm phải nên dựa vào text nhập cuối cùng</t>
+  </si>
+  <si>
+    <t>nên mã hóa khi truyền request bằng hàm "encodeURIComponent"</t>
+  </si>
+  <si>
+    <t>component {Link} trong reactjs nó bằng thẻ &lt;a&gt;</t>
+  </si>
+  <si>
+    <t>debounce là kĩ thuật để xử lí</t>
+  </si>
+  <si>
+    <t>là mình tự tạo 1 hook, dựa trên hook có sẵn</t>
+  </si>
+  <si>
+    <t>khi mà hành động xảy ra 1 chuỗi liên tục</t>
+  </si>
+  <si>
+    <t>nhưng ta chỉ muốn thực hiện 1 hành động cuối cùng</t>
   </si>
 </sst>
 </file>
@@ -1247,13 +1346,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1291,13 +1390,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1335,13 +1434,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1379,13 +1478,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1423,13 +1522,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2054,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:T25"/>
+  <dimension ref="B3:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2150,7 +2249,27 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="7:10">
+    <row r="11" spans="2:20">
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="R16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="7:19">
+      <c r="R17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="7:19">
+      <c r="R18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="7:19">
       <c r="G19" s="4" t="s">
         <v>3</v>
       </c>
@@ -2161,7 +2280,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="7:10">
+    <row r="20" spans="7:19">
       <c r="G20" s="4" t="s">
         <v>3</v>
       </c>
@@ -2172,33 +2291,36 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="7:10">
+    <row r="21" spans="7:19">
       <c r="G21" s="4"/>
       <c r="I21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="7:10">
+    <row r="22" spans="7:19">
       <c r="G22" s="4"/>
       <c r="J22" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="7:10">
+    <row r="23" spans="7:19">
       <c r="G23" s="4"/>
       <c r="J23" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="7:10">
+    <row r="24" spans="7:19">
       <c r="G24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H24" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="25" spans="7:10">
+      <c r="S24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="7:19">
       <c r="G25" s="4" t="s">
         <v>3</v>
       </c>
@@ -2206,18 +2328,154 @@
         <v>299</v>
       </c>
     </row>
+    <row r="26" spans="7:19">
+      <c r="G26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>300</v>
+      </c>
+      <c r="S26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="7:19">
+      <c r="G27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>304</v>
+      </c>
+      <c r="S27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="7:19">
+      <c r="G28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>305</v>
+      </c>
+      <c r="S28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="7:19">
+      <c r="G29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>327</v>
+      </c>
+      <c r="S29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="7:19">
+      <c r="G30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="7:19">
+      <c r="G31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="7:19">
+      <c r="G32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="9:21">
+      <c r="I33" t="s">
+        <v>331</v>
+      </c>
+      <c r="R33" t="s">
+        <v>312</v>
+      </c>
+      <c r="U33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="9:21">
+      <c r="I34" t="s">
+        <v>332</v>
+      </c>
+      <c r="R34" t="s">
+        <v>324</v>
+      </c>
+      <c r="U34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="9:21">
+      <c r="R35" t="s">
+        <v>314</v>
+      </c>
+      <c r="U35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="9:21">
+      <c r="R36" t="s">
+        <v>316</v>
+      </c>
+      <c r="U36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="9:21">
+      <c r="R37" t="s">
+        <v>318</v>
+      </c>
+      <c r="T37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="9:21">
+      <c r="R38" t="s">
+        <v>319</v>
+      </c>
+      <c r="T38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="9:21">
+      <c r="R39" t="s">
+        <v>322</v>
+      </c>
+      <c r="U39" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q31" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S347"/>
+  <dimension ref="B2:S348"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J352" sqref="J352"/>
+    <sheetView topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3771,87 +4029,95 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="2:5">
-      <c r="C226" s="16" t="s">
+    <row r="225" spans="2:5">
+      <c r="C225" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5">
+      <c r="C227" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D227" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="2:5">
-      <c r="D227" t="s">
+    <row r="228" spans="2:5">
+      <c r="D228" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="229" spans="2:5">
-      <c r="C229" s="16" t="s">
+    <row r="230" spans="2:5">
+      <c r="C230" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E230" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="232" spans="2:5">
-      <c r="B232" s="8" t="s">
+    <row r="233" spans="2:5">
+      <c r="B233" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="256" spans="2:2">
-      <c r="B256" t="s">
+    <row r="257" spans="2:3">
+      <c r="B257" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="257" spans="2:3">
-      <c r="C257" t="s">
+    <row r="258" spans="2:3">
+      <c r="C258" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="269" spans="2:3">
-      <c r="B269" s="8" t="s">
+    <row r="270" spans="2:3">
+      <c r="B270" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="311" spans="2:4">
-      <c r="B311" s="8" t="s">
+    <row r="312" spans="2:4">
+      <c r="B312" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D312" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="344" spans="2:9">
-      <c r="B344" t="s">
-        <v>3</v>
-      </c>
-      <c r="C344" t="s">
+    <row r="345" spans="2:9">
+      <c r="B345" t="s">
+        <v>3</v>
+      </c>
+      <c r="C345" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="345" spans="2:9">
-      <c r="D345" t="s">
+    <row r="346" spans="2:9">
+      <c r="D346" t="s">
         <v>72</v>
       </c>
-      <c r="I345" t="s">
+      <c r="I346" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="346" spans="2:9">
-      <c r="C346" t="s">
+    <row r="347" spans="2:9">
+      <c r="C347" t="s">
         <v>268</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D347" t="s">
         <v>263</v>
       </c>
-      <c r="E346" t="s">
+      <c r="E347" t="s">
         <v>264</v>
       </c>
-      <c r="I346" t="s">
+      <c r="I347" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="347" spans="2:9">
-      <c r="D347" t="s">
+    <row r="348" spans="2:9">
+      <c r="D348" t="s">
         <v>265</v>
       </c>
     </row>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="340">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -1068,6 +1068,27 @@
   </si>
   <si>
     <t>nhưng ta chỉ muốn thực hiện 1 hành động cuối cùng</t>
+  </si>
+  <si>
+    <t>thử viện axios, để gọi api từ trình duyệt</t>
+  </si>
+  <si>
+    <t>cài thư viện axios</t>
+  </si>
+  <si>
+    <t>npm install axios</t>
+  </si>
+  <si>
+    <t>cách thiết kế api của tiktok</t>
+  </si>
+  <si>
+    <t>có 2 loại call api</t>
+  </si>
+  <si>
+    <t>XMLHttpRequest</t>
+  </si>
+  <si>
+    <t>ftech</t>
   </si>
 </sst>
 </file>
@@ -2155,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2399,7 +2420,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="9:21">
+    <row r="33" spans="7:21">
       <c r="I33" t="s">
         <v>331</v>
       </c>
@@ -2410,7 +2431,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="9:21">
+    <row r="34" spans="7:21">
       <c r="I34" t="s">
         <v>332</v>
       </c>
@@ -2421,7 +2442,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="9:21">
+    <row r="35" spans="7:21">
+      <c r="G35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>333</v>
+      </c>
       <c r="R35" t="s">
         <v>314</v>
       </c>
@@ -2429,7 +2456,13 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="9:21">
+    <row r="36" spans="7:21">
+      <c r="G36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>337</v>
+      </c>
       <c r="R36" t="s">
         <v>316</v>
       </c>
@@ -2437,23 +2470,41 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="9:21">
+    <row r="37" spans="7:21">
+      <c r="H37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
       <c r="R37" t="s">
         <v>318</v>
       </c>
       <c r="T37" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="38" spans="9:21">
+      <c r="U37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="7:21">
+      <c r="H38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" t="s">
+        <v>339</v>
+      </c>
       <c r="R38" t="s">
         <v>319</v>
       </c>
       <c r="T38" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="39" spans="9:21">
+      <c r="U38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="7:21">
       <c r="R39" t="s">
         <v>322</v>
       </c>
@@ -2474,84 +2525,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S348"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:9">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="I4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="I6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="I7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="I8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="I9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="I10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:9">
       <c r="I12" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:9">
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2559,7 +2554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:9">
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2567,7 +2562,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:9">
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
@@ -4130,10 +4125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I10"/>
+  <dimension ref="C2:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4144,6 +4139,9 @@
       </c>
     </row>
     <row r="3" spans="3:9">
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>127</v>
       </c>
@@ -4152,6 +4150,9 @@
       </c>
     </row>
     <row r="4" spans="3:9">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>129</v>
       </c>
@@ -4160,6 +4161,9 @@
       </c>
     </row>
     <row r="5" spans="3:9">
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>130</v>
       </c>
@@ -4168,6 +4172,9 @@
       </c>
     </row>
     <row r="6" spans="3:9">
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>140</v>
       </c>
@@ -4176,6 +4183,9 @@
       </c>
     </row>
     <row r="7" spans="3:9">
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>199</v>
       </c>
@@ -4184,6 +4194,9 @@
       </c>
     </row>
     <row r="8" spans="3:9">
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>229</v>
       </c>
@@ -4192,6 +4205,9 @@
       </c>
     </row>
     <row r="9" spans="3:9">
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>129</v>
       </c>
@@ -4200,11 +4216,81 @@
       </c>
     </row>
     <row r="10" spans="3:9">
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>232</v>
       </c>
       <c r="I10" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4217,7 +4303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="345">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -1089,6 +1089,21 @@
   </si>
   <si>
     <t>ftech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thư viện proptype: </t>
+  </si>
+  <si>
+    <t>nó là validate tham số props</t>
+  </si>
+  <si>
+    <t>nó đã được cài đặt sẵn trong thư viện react app</t>
+  </si>
+  <si>
+    <t>icon chưa thay index</t>
+  </si>
+  <si>
+    <t>những hàm bắt đầu bằng từ "on" thì đặt hàm là handle</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
@@ -2174,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U39"/>
+  <dimension ref="B3:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2510,6 +2525,41 @@
       </c>
       <c r="U39" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="7:21">
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="7:21">
+      <c r="H41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="7:21">
+      <c r="H42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="7:21">
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3390" windowWidth="17280" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="5760" yWindow="3390" windowWidth="17280" windowHeight="8970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="347">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -1104,6 +1104,12 @@
   </si>
   <si>
     <t>những hàm bắt đầu bằng từ "on" thì đặt hàm là handle</t>
+  </si>
+  <si>
+    <t>Hardcode</t>
+  </si>
+  <si>
+    <t>code cứng</t>
   </si>
 </sst>
 </file>
@@ -1338,13 +1344,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1382,13 +1388,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1426,13 +1432,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1470,13 +1476,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1514,13 +1520,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>342</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1558,13 +1564,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2037,7 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
@@ -2189,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U43"/>
+  <dimension ref="B3:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2560,6 +2566,17 @@
       </c>
       <c r="H43" s="10" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="7:21">
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I44" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2573,164 +2590,239 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S348"/>
+  <dimension ref="B2:S339"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:13">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="I12" s="10" t="s">
+    <row r="3" spans="2:13">
+      <c r="I3" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="4" spans="2:13">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="2"/>
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="2"/>
+      <c r="E20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="2"/>
+      <c r="E21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="2"/>
+      <c r="E22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="2"/>
+      <c r="E23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="2"/>
+      <c r="E24" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="2"/>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" s="2"/>
-      <c r="E26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
+      <c r="E26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="2"/>
+      <c r="E27" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" s="2"/>
-      <c r="E28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="E28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" s="2"/>
       <c r="E29" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
       <c r="C30" s="2"/>
       <c r="E30" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
       <c r="C31" s="2"/>
       <c r="E31" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
       <c r="C32" s="2"/>
-      <c r="E32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" t="s">
-        <v>214</v>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="3:6">
@@ -2739,13 +2831,16 @@
         <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="2"/>
-      <c r="E34" s="1" t="s">
-        <v>29</v>
+      <c r="E34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="3:6">
@@ -2754,7 +2849,7 @@
         <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="3:6">
@@ -2763,727 +2858,724 @@
         <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="3:6">
-      <c r="C37" s="2"/>
-      <c r="E37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" t="s">
-        <v>35</v>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="2"/>
-      <c r="E38" s="4" t="s">
-        <v>53</v>
+      <c r="E38" t="s">
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>221</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="2"/>
-      <c r="E39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" t="s">
-        <v>216</v>
+      <c r="E39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="2"/>
-      <c r="E40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" t="s">
-        <v>217</v>
+      <c r="E40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="C41" s="2"/>
-      <c r="E41" s="1" t="s">
-        <v>30</v>
+      <c r="E41" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="2"/>
-      <c r="E42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" t="s">
-        <v>36</v>
+      <c r="E42" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" s="2"/>
-      <c r="E43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" t="s">
-        <v>222</v>
+      <c r="E43" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="2"/>
-      <c r="E44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" t="s">
-        <v>218</v>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="2"/>
-      <c r="E45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" t="s">
-        <v>223</v>
+      <c r="E45" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="3:6">
-      <c r="C46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>37</v>
+      <c r="C46" s="2"/>
+      <c r="E46" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="2"/>
-      <c r="E47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="C48" s="2"/>
       <c r="E48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="C49" s="2"/>
       <c r="E49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="C50" s="2"/>
-      <c r="E50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="C51" s="2"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
       <c r="E51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="C52" s="2"/>
       <c r="E52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6">
-      <c r="C53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="C53" s="2"/>
+      <c r="E53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="C54" s="2"/>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6">
+      <c r="E54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="C55" s="2"/>
       <c r="E55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="C56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="C57" s="2"/>
-      <c r="E57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="C58" s="2"/>
-      <c r="E58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6">
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="3:6">
-      <c r="C60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6">
-      <c r="C61" s="2"/>
-      <c r="E61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6">
-      <c r="C62" s="2"/>
-      <c r="E62" s="4" t="s">
+      <c r="E57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6">
-      <c r="C63" s="2"/>
-      <c r="E63" s="4" t="s">
+      <c r="F57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="C63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="C64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19">
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19">
+      <c r="C66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
+      <c r="B68" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
+      <c r="D69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
+      <c r="D70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19">
+      <c r="D71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19">
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19">
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
+      <c r="B75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R75" t="s">
+        <v>194</v>
+      </c>
+      <c r="S75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
+      <c r="C76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
+      <c r="C77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>62</v>
+      </c>
+      <c r="R77" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19">
+      <c r="C78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>225</v>
+      </c>
+      <c r="R78" t="s">
+        <v>197</v>
+      </c>
+      <c r="S78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19">
+      <c r="B79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19">
+      <c r="C80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="C81" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="C85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="C86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="C89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="C90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="C92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="C93" s="2"/>
+      <c r="D93" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6">
-      <c r="C64" s="2"/>
-      <c r="E64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="C65" s="2"/>
-      <c r="E65" s="2" t="s">
+      <c r="E93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="C94" s="2"/>
+      <c r="D94" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="C66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="C67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="C68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="C72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="C73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="C74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="C75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="D78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="D79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="D80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19">
-      <c r="D81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19">
-      <c r="B82" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19">
-      <c r="B84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R84" t="s">
-        <v>194</v>
-      </c>
-      <c r="S84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19">
-      <c r="C85" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19">
-      <c r="C86" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" t="s">
-        <v>62</v>
-      </c>
-      <c r="R86" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19">
-      <c r="C87" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" t="s">
-        <v>225</v>
-      </c>
-      <c r="R87" t="s">
-        <v>197</v>
-      </c>
-      <c r="S87" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19">
-      <c r="B88" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19">
-      <c r="C89" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19">
-      <c r="C90" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="2:19">
-      <c r="B91" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D91" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="2:19">
-      <c r="B93" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="2:19">
-      <c r="C94" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="2:19">
-      <c r="C95" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="C98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="C99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="C101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5">
+      <c r="E94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="2:4">
       <c r="C102" s="2"/>
-      <c r="D102" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
+    </row>
+    <row r="103" spans="2:4">
       <c r="C103" s="2"/>
-      <c r="D103" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
+    </row>
+    <row r="104" spans="2:4" ht="15.75" customHeight="1">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:4" ht="15.75" customHeight="1">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:4" ht="15.75" customHeight="1">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:4" ht="15.75" customHeight="1">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:4" ht="15.75" customHeight="1">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:4" ht="15.75" customHeight="1">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:4" ht="15.75" customHeight="1">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:4">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="2:5">
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C119" s="2"/>
+    <row r="112" spans="2:4">
+      <c r="B112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="1"/>
+      <c r="D118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="1"/>
+      <c r="D119" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="120" spans="2:4">
-      <c r="C120" s="2"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="B121" s="1"/>
       <c r="D121" t="s">
-        <v>92</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="1"/>
+      <c r="C122" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="1" t="s">
-        <v>70</v>
+      <c r="B123" s="1"/>
+      <c r="D123" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" s="1"/>
+      <c r="D124" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" s="1" t="s">
-        <v>71</v>
+      <c r="B125" s="1"/>
+      <c r="C125" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" s="1" t="s">
-        <v>108</v>
+      <c r="B126" s="1"/>
+      <c r="D126" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="B127" s="1"/>
-      <c r="D127" t="s">
-        <v>109</v>
+      <c r="C127" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="2:4">
       <c r="B128" s="1"/>
       <c r="D128" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
       <c r="B129" s="1"/>
-      <c r="C129" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4">
+      <c r="D129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
       <c r="B130" s="1"/>
-      <c r="D130" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4">
-      <c r="B131" s="1"/>
-      <c r="C131" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4">
-      <c r="B132" s="1"/>
+      <c r="C130" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="D131" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
       <c r="D132" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
       <c r="B133" s="1"/>
       <c r="D133" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4">
-      <c r="B134" s="1"/>
-      <c r="C134" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4">
-      <c r="B135" s="1"/>
-      <c r="D135" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4">
-      <c r="B136" s="1"/>
-      <c r="C136" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4">
-      <c r="B137" s="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="D134" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
       <c r="D137" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4">
-      <c r="B138" s="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
       <c r="D138" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4">
-      <c r="B139" s="1"/>
-      <c r="C139" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4">
-      <c r="D140" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4">
-      <c r="D141" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="B142" s="1"/>
-      <c r="D142" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4">
-      <c r="D143" t="s">
-        <v>93</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="8"/>
+      <c r="C141" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="8"/>
+      <c r="C142" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="8"/>
+      <c r="D143" s="5"/>
+      <c r="E143" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="8"/>
+      <c r="D144" s="5"/>
+      <c r="E144" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="2:11">
-      <c r="B145" s="8" t="s">
-        <v>137</v>
+      <c r="B145" s="8"/>
+      <c r="D145" s="5"/>
+      <c r="E145" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="2:11">
-      <c r="D146" t="s">
-        <v>138</v>
+      <c r="B146" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="2:11">
+      <c r="C147" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="D147" t="s">
-        <v>139</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="C148" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>142</v>
+      <c r="C149" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="2:11">
-      <c r="B150" s="8"/>
-      <c r="C150" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>143</v>
+      <c r="B150" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="2:11">
-      <c r="B151" s="8"/>
-      <c r="C151" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>144</v>
+      <c r="C151" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>234</v>
+      </c>
+      <c r="K151" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="2:11">
-      <c r="B152" s="8"/>
-      <c r="D152" s="5"/>
-      <c r="E152" t="s">
-        <v>145</v>
+      <c r="C152" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="2:11">
-      <c r="B153" s="8"/>
-      <c r="D153" s="5"/>
-      <c r="E153" t="s">
-        <v>146</v>
+      <c r="C153" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="8"/>
-      <c r="D154" s="5"/>
-      <c r="E154" t="s">
-        <v>147</v>
+      <c r="C154" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="2:11">
-      <c r="B155" t="s">
-        <v>50</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>95</v>
+      <c r="C155" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="2:11">
@@ -3491,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
     </row>
     <row r="157" spans="2:11">
@@ -3499,670 +3591,595 @@
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="2:11">
       <c r="C158" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D158" t="s">
-        <v>150</v>
-      </c>
+      <c r="D158" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G158" s="15"/>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" t="s">
+      <c r="C159" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E159" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
     </row>
     <row r="160" spans="2:11">
       <c r="C160" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D160" t="s">
-        <v>234</v>
-      </c>
-      <c r="K160" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="161" spans="3:7">
-      <c r="C161" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="162" spans="3:7">
-      <c r="C162" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D162" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="163" spans="3:7">
+      <c r="D160" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="C161" s="13"/>
+      <c r="D161" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="C162" s="13"/>
+      <c r="D162" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+    </row>
+    <row r="163" spans="2:7">
       <c r="C163" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D163" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="164" spans="3:7">
-      <c r="C164" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="165" spans="3:7">
-      <c r="C165" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D165" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="166" spans="3:7">
+      <c r="D163" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="C164" s="13"/>
+      <c r="D164" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E164" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="C165" s="13"/>
+      <c r="D165" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+    </row>
+    <row r="166" spans="2:7">
       <c r="C166" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D166" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="167" spans="3:7">
+      <c r="D166" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
       <c r="C167" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F167" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="C168" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F168" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="C169" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G169" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="C170" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="C171" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="C172" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="C173" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" t="s">
         <v>50</v>
       </c>
-      <c r="G167" s="15"/>
-    </row>
-    <row r="168" spans="3:7">
-      <c r="C168" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-    </row>
-    <row r="169" spans="3:7">
-      <c r="C169" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-    </row>
-    <row r="170" spans="3:7">
-      <c r="C170" s="13"/>
-      <c r="D170" s="4" t="s">
+      <c r="C174" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="C175" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="C176" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="C177" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="C178" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="C179" s="13"/>
+      <c r="D179" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E170" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-    </row>
-    <row r="171" spans="3:7">
-      <c r="C171" s="13"/>
-      <c r="D171" s="4" t="s">
+      <c r="E179" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="C180" s="13"/>
+      <c r="D180" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E171" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-    </row>
-    <row r="172" spans="3:7">
-      <c r="C172" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-    </row>
-    <row r="173" spans="3:7">
-      <c r="C173" s="13"/>
-      <c r="D173" s="4" t="s">
+      <c r="E180" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="C181" s="13"/>
+      <c r="D181" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E173" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-    </row>
-    <row r="174" spans="3:7">
-      <c r="C174" s="13"/>
-      <c r="D174" s="4" t="s">
+      <c r="E181" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="C182" s="13"/>
+      <c r="D182" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E174" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-    </row>
-    <row r="175" spans="3:7">
-      <c r="C175" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="176" spans="3:7">
-      <c r="C176" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="F176" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="177" spans="2:7">
-      <c r="C177" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F177" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="178" spans="2:7">
-      <c r="C178" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G178" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7">
-      <c r="C179" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="180" spans="2:7">
-      <c r="C180" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7">
-      <c r="C181" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="182" spans="2:7">
-      <c r="C182" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7">
+      <c r="E182" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
       <c r="B183" t="s">
         <v>50</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7">
+        <v>98</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
       <c r="C184" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D184" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7">
+      <c r="D184" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
       <c r="C185" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
       <c r="C186" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="187" spans="2:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
       <c r="C187" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D187" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="188" spans="2:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
       <c r="C188" s="13"/>
       <c r="D188" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E188" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="189" spans="2:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
       <c r="C189" s="13"/>
       <c r="D189" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E189" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="190" spans="2:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
       <c r="C190" s="13"/>
       <c r="D190" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E190" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="191" spans="2:7">
-      <c r="C191" s="13"/>
-      <c r="D191" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E191" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7">
-      <c r="B192" t="s">
-        <v>50</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D192" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5">
-      <c r="C193" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="194" spans="3:5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="C191" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="C192" s="13"/>
+    </row>
+    <row r="193" spans="3:8">
+      <c r="C193" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8">
       <c r="C194" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="195" spans="3:5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8">
       <c r="C195" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="196" spans="3:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8">
       <c r="C196" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="197" spans="3:5">
-      <c r="C197" s="13"/>
-      <c r="D197" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E197" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="198" spans="3:5">
-      <c r="C198" s="13"/>
-      <c r="D198" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E198" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="199" spans="3:5">
-      <c r="C199" s="13"/>
-      <c r="D199" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E199" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="200" spans="3:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8">
+      <c r="C197" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8">
+      <c r="C198" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="199" spans="3:8">
+      <c r="C199" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8">
       <c r="C200" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5">
-      <c r="C201" s="13"/>
-    </row>
-    <row r="202" spans="3:5">
-      <c r="C202" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5">
+        <v>165</v>
+      </c>
+      <c r="H200" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8">
+      <c r="C201" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8">
+      <c r="C202" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8">
       <c r="C203" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8">
       <c r="C204" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="205" spans="3:8">
       <c r="C205" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8">
       <c r="C206" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5">
-      <c r="C207" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D207" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5">
-      <c r="C208" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="3:8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8">
+      <c r="C207" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="208" spans="3:8">
+      <c r="C208" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5">
       <c r="C209" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>165</v>
-      </c>
-      <c r="H209" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="210" spans="3:8">
+    <row r="210" spans="2:5">
       <c r="C210" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="211" spans="3:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5">
       <c r="C211" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D211" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="212" spans="3:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5">
       <c r="C212" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="213" spans="3:8">
-      <c r="C213" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D213" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="214" spans="3:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="C213" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5">
       <c r="C214" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D214" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="215" spans="3:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5">
       <c r="C215" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="216" spans="3:8">
-      <c r="C216" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="217" spans="3:8">
-      <c r="C217" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D217" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="218" spans="3:8">
-      <c r="C218" s="13" t="s">
-        <v>3</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="C216" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5">
+      <c r="C218" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="D218" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="219" spans="3:8">
-      <c r="C219" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5">
       <c r="D219" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="220" spans="3:8">
-      <c r="C220" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D220" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="221" spans="3:8">
-      <c r="C221" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D221" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="222" spans="3:8">
-      <c r="C222" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="223" spans="3:8">
-      <c r="C223" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D223" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="224" spans="3:8">
-      <c r="C224" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D224" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5">
-      <c r="C225" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D225" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5">
-      <c r="C227" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D227" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5">
-      <c r="D228" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="230" spans="2:5">
-      <c r="C230" s="16" t="s">
+    <row r="221" spans="2:5">
+      <c r="C221" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E221" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="233" spans="2:5">
-      <c r="B233" s="8" t="s">
+    <row r="224" spans="2:5">
+      <c r="B224" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="257" spans="2:3">
-      <c r="B257" t="s">
+    <row r="248" spans="2:3">
+      <c r="B248" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="258" spans="2:3">
-      <c r="C258" t="s">
+    <row r="249" spans="2:3">
+      <c r="C249" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="270" spans="2:3">
-      <c r="B270" s="8" t="s">
+    <row r="261" spans="2:2">
+      <c r="B261" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="312" spans="2:4">
-      <c r="B312" s="8" t="s">
+    <row r="303" spans="2:4">
+      <c r="B303" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D303" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="345" spans="2:9">
-      <c r="B345" t="s">
-        <v>3</v>
-      </c>
-      <c r="C345" t="s">
+    <row r="336" spans="2:3">
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="346" spans="2:9">
-      <c r="D346" t="s">
+    <row r="337" spans="3:9">
+      <c r="D337" t="s">
         <v>72</v>
       </c>
-      <c r="I346" t="s">
+      <c r="I337" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="347" spans="2:9">
-      <c r="C347" t="s">
+    <row r="338" spans="3:9">
+      <c r="C338" t="s">
         <v>268</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D338" t="s">
         <v>263</v>
       </c>
-      <c r="E347" t="s">
+      <c r="E338" t="s">
         <v>264</v>
       </c>
-      <c r="I347" t="s">
+      <c r="I338" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="348" spans="2:9">
-      <c r="D348" t="s">
+    <row r="339" spans="3:9">
+      <c r="D339" t="s">
         <v>265</v>
       </c>
     </row>
